--- a/Public/model/Org.xlsx
+++ b/Public/model/Org.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C8AEA9C2-A6D2-46ED-BC79-83F581CE3F27}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F25DF45-9383-4518-9377-2C30039FE089}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>组织名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组织编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组织描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件系学生会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院学生会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +375,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -373,35 +385,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
